--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suraj\MSBTE_GudExams\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17589C85-A7FA-48C7-88FC-59FA8FC53FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E186DC7-45BB-483F-ADBE-C2AAA8B3BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>testDescription</t>
   </si>
@@ -103,9 +103,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>To test the login logout funcationality of the Institute-Admin role using given login cedentials</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,12 +597,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -617,12 +620,15 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -646,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suraj\MSBTE_GudExams\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E186DC7-45BB-483F-ADBE-C2AAA8B3BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A67443-B34D-4320-97B6-78A548ECE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCaseData" sheetId="1" r:id="rId1"/>
     <sheet name="usersDate" sheetId="2" r:id="rId2"/>
+    <sheet name="InstData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>testDescription</t>
   </si>
@@ -116,13 +117,49 @@
   </si>
   <si>
     <t>super</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Inst_Name</t>
+  </si>
+  <si>
+    <t>Inst_Email</t>
+  </si>
+  <si>
+    <t>Inst_Mobile_No</t>
+  </si>
+  <si>
+    <t>Inst_Password</t>
+  </si>
+  <si>
+    <t>AUT01</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>AutomationTesting@bynaric.in</t>
+  </si>
+  <si>
+    <t>53116201</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>addInstitute</t>
+  </si>
+  <si>
+    <t>To test the add institute form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +172,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,15 +199,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +587,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -549,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3F81C6-3AB8-40A2-BAE9-9386124A46C5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,4 +724,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BFD118-0090-4219-8353-02C93C556B7D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8F83ABA2-FA76-46A7-A067-103EBF885E21}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suraj\MSBTE_GudExams\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A67443-B34D-4320-97B6-78A548ECE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367AB0B6-D123-4483-9685-FEB2FB644111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCaseData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>testDescription</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>To test the add institute form</t>
+  </si>
+  <si>
+    <t>msbte@22#</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3F81C6-3AB8-40A2-BAE9-9386124A46C5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,8 +713,8 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -730,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BFD118-0090-4219-8353-02C93C556B7D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
